--- a/biology/Histoire de la zoologie et de la botanique/René_Ginet/René_Ginet.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/René_Ginet/René_Ginet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Ginet</t>
+          <t>René_Ginet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">René (Gabriel) Ginet est un spéléologue et zoologiste français, né le 24 septembre 1927 à Lyon et mort le 7 janvier 2014 (à 86 ans) à Lyon[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">René (Gabriel) Ginet est un spéléologue et zoologiste français, né le 24 septembre 1927 à Lyon et mort le 7 janvier 2014 (à 86 ans) à Lyon.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Ginet</t>
+          <t>René_Ginet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1960 René Ginet devient docteur és-sciences en biologie avec une thèse sur les Niphargus. Il devient professeur de zoologie à la Faculté des sciences de Lyon 1 où il est directeur de nombreuses thèses entre 1967 et 1988. Il a créé en France l'enseignement de la biologie souterraine auquel il a consacré toute sa carrière. Il est aussi le père du laboratoire souterrain de la Grotte de Hautecourt (Ain) qui est devenu depuis une Réserve Naturelle Nationale.
 Il est l'auteur, en 1977 avec le roumain Vasile Decou, d'un livre qui fait encore référence « Initiation à la biologie et l'écologie souterraine ».
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Ginet</t>
+          <t>René_Ginet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1986 : Membre d'honneur de la Fédération française de spéléologie
  Commandeur de l'ordre national du Mérite
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Ginet</t>
+          <t>René_Ginet</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Taxa dédiés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les espèces suivantes sont nommées gineti en l'honneur de René Ginet :
 Niphargus gineti Bou, 1965</t>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Ginet</t>
+          <t>René_Ginet</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,6 +629,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
